--- a/hardware/Component-Library.xlsx
+++ b/hardware/Component-Library.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andgu\Documents\DRONE\Flight-Controller\hardware\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-22.04\home\andgui\Projects\Flight-Controller\hardware\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4FB798F-A126-4BE2-A27A-0C7858E6257D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFC27FAE-DEA1-4DB4-9715-EDA48DFCE404}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ICs" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="173">
   <si>
     <t>Category</t>
   </si>
@@ -513,6 +513,42 @@
   </si>
   <si>
     <t>..\resources\datasheets\CONNECTOR\GH1.25-datasheet.pdf</t>
+  </si>
+  <si>
+    <t>MOSFET</t>
+  </si>
+  <si>
+    <t>2N7002</t>
+  </si>
+  <si>
+    <t>SOT-23-3 (TO-236)</t>
+  </si>
+  <si>
+    <t>MOSFET N-CH 60V 280MA</t>
+  </si>
+  <si>
+    <t>..\resources\datasheets\MOSFET\Diotec-2n7002.pdf</t>
+  </si>
+  <si>
+    <t>DigiKey-2N7002</t>
+  </si>
+  <si>
+    <t>AO3400A</t>
+  </si>
+  <si>
+    <t>3-SMD, SOT-23-3 Variant</t>
+  </si>
+  <si>
+    <t>..\resources\datasheets\MOSFET\AO3400A_ds.pdf</t>
+  </si>
+  <si>
+    <t>DigiKey-AO3400A</t>
+  </si>
+  <si>
+    <t>N-Channel 30 V 5.7A (Ta) 1.4W (Ta</t>
+  </si>
+  <si>
+    <t>JLCPCB-AO3400A</t>
   </si>
 </sst>
 </file>
@@ -781,6 +817,24 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -855,24 +909,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1317,7 +1353,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C2:K21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
@@ -1333,29 +1369,29 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C2" s="40" t="s">
+      <c r="C2" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="40" t="s">
+      <c r="D2" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="41" t="s">
+      <c r="E2" s="47" t="s">
         <v>40</v>
       </c>
-      <c r="F2" s="42"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="38" t="s">
+      <c r="F2" s="48"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="44" t="s">
         <v>35</v>
       </c>
-      <c r="I2" s="39"/>
-      <c r="J2" s="38" t="s">
+      <c r="I2" s="45"/>
+      <c r="J2" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="K2" s="39"/>
+      <c r="K2" s="45"/>
     </row>
     <row r="3" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
       <c r="E3" s="16" t="s">
         <v>39</v>
       </c>
@@ -1379,20 +1415,20 @@
       </c>
     </row>
     <row r="4" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C4" s="35" t="s">
+      <c r="C4" s="41" t="s">
         <v>70</v>
       </c>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="36"/>
-      <c r="I4" s="36"/>
-      <c r="J4" s="36"/>
-      <c r="K4" s="37"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="42"/>
+      <c r="I4" s="42"/>
+      <c r="J4" s="42"/>
+      <c r="K4" s="43"/>
     </row>
     <row r="5" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C5" s="44" t="s">
+      <c r="C5" s="50" t="s">
         <v>2</v>
       </c>
       <c r="D5" s="19" t="s">
@@ -1401,7 +1437,7 @@
       <c r="E5" t="s">
         <v>46</v>
       </c>
-      <c r="F5" s="54" t="s">
+      <c r="F5" s="29" t="s">
         <v>138</v>
       </c>
       <c r="G5" s="4" t="s">
@@ -1417,14 +1453,14 @@
       <c r="K5" s="1"/>
     </row>
     <row r="6" spans="3:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="C6" s="45"/>
+      <c r="C6" s="51"/>
       <c r="D6" s="19" t="s">
         <v>4</v>
       </c>
       <c r="E6" t="s">
         <v>46</v>
       </c>
-      <c r="F6" s="54" t="s">
+      <c r="F6" s="29" t="s">
         <v>139</v>
       </c>
       <c r="G6" s="3" t="s">
@@ -1440,14 +1476,14 @@
       <c r="K6" s="1"/>
     </row>
     <row r="7" spans="3:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="C7" s="45"/>
+      <c r="C7" s="51"/>
       <c r="D7" s="19" t="s">
         <v>7</v>
       </c>
       <c r="E7" t="s">
         <v>46</v>
       </c>
-      <c r="F7" s="55"/>
+      <c r="F7" s="30"/>
       <c r="G7" s="3" t="s">
         <v>12</v>
       </c>
@@ -1461,7 +1497,7 @@
       <c r="K7" s="1"/>
     </row>
     <row r="8" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C8" s="45" t="s">
+      <c r="C8" s="51" t="s">
         <v>8</v>
       </c>
       <c r="D8" s="19" t="s">
@@ -1470,7 +1506,7 @@
       <c r="E8" t="s">
         <v>46</v>
       </c>
-      <c r="F8" s="54" t="s">
+      <c r="F8" s="29" t="s">
         <v>140</v>
       </c>
       <c r="G8" s="4" t="s">
@@ -1486,14 +1522,14 @@
       <c r="K8" s="1"/>
     </row>
     <row r="9" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C9" s="45"/>
+      <c r="C9" s="51"/>
       <c r="D9" s="19" t="s">
         <v>14</v>
       </c>
       <c r="E9" t="s">
         <v>46</v>
       </c>
-      <c r="F9" s="54" t="s">
+      <c r="F9" s="29" t="s">
         <v>141</v>
       </c>
       <c r="G9" s="4" t="s">
@@ -1509,7 +1545,7 @@
       <c r="K9" s="1"/>
     </row>
     <row r="10" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C10" s="45" t="s">
+      <c r="C10" s="51" t="s">
         <v>15</v>
       </c>
       <c r="D10" s="19" t="s">
@@ -1518,7 +1554,7 @@
       <c r="E10" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="F10" s="56" t="s">
+      <c r="F10" s="31" t="s">
         <v>142</v>
       </c>
       <c r="G10" s="4" t="s">
@@ -1534,14 +1570,14 @@
       <c r="K10" s="1"/>
     </row>
     <row r="11" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C11" s="46"/>
+      <c r="C11" s="52"/>
       <c r="D11" s="19" t="s">
         <v>17</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="F11" s="56" t="s">
+      <c r="F11" s="31" t="s">
         <v>143</v>
       </c>
       <c r="G11" t="s">
@@ -1557,20 +1593,20 @@
       <c r="K11" s="1"/>
     </row>
     <row r="12" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C12" s="32" t="s">
+      <c r="C12" s="38" t="s">
         <v>71</v>
       </c>
-      <c r="D12" s="33"/>
-      <c r="E12" s="33"/>
-      <c r="F12" s="33"/>
-      <c r="G12" s="33"/>
-      <c r="H12" s="33"/>
-      <c r="I12" s="33"/>
-      <c r="J12" s="33"/>
-      <c r="K12" s="34"/>
+      <c r="D12" s="39"/>
+      <c r="E12" s="39"/>
+      <c r="F12" s="39"/>
+      <c r="G12" s="39"/>
+      <c r="H12" s="39"/>
+      <c r="I12" s="39"/>
+      <c r="J12" s="39"/>
+      <c r="K12" s="40"/>
     </row>
     <row r="13" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C13" s="47" t="s">
+      <c r="C13" s="53" t="s">
         <v>21</v>
       </c>
       <c r="D13" s="4" t="s">
@@ -1579,7 +1615,7 @@
       <c r="E13" t="s">
         <v>42</v>
       </c>
-      <c r="F13" s="54" t="s">
+      <c r="F13" s="29" t="s">
         <v>144</v>
       </c>
       <c r="G13" t="s">
@@ -1597,11 +1633,11 @@
       <c r="K13" s="1"/>
     </row>
     <row r="14" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C14" s="47"/>
+      <c r="C14" s="53"/>
       <c r="D14" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F14" s="55"/>
+      <c r="F14" s="30"/>
       <c r="H14" s="6" t="s">
         <v>5</v>
       </c>
@@ -1612,11 +1648,11 @@
       <c r="K14" s="1"/>
     </row>
     <row r="15" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C15" s="47"/>
+      <c r="C15" s="53"/>
       <c r="D15" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F15" s="55"/>
+      <c r="F15" s="30"/>
       <c r="G15" t="s">
         <v>24</v>
       </c>
@@ -1630,17 +1666,17 @@
       <c r="K15" s="1"/>
     </row>
     <row r="16" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C16" s="32" t="s">
+      <c r="C16" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="D16" s="33"/>
-      <c r="E16" s="33"/>
-      <c r="F16" s="33"/>
-      <c r="G16" s="33"/>
-      <c r="H16" s="33"/>
-      <c r="I16" s="33"/>
-      <c r="J16" s="33"/>
-      <c r="K16" s="34"/>
+      <c r="D16" s="39"/>
+      <c r="E16" s="39"/>
+      <c r="F16" s="39"/>
+      <c r="G16" s="39"/>
+      <c r="H16" s="39"/>
+      <c r="I16" s="39"/>
+      <c r="J16" s="39"/>
+      <c r="K16" s="40"/>
     </row>
     <row r="17" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C17" s="12" t="s">
@@ -1652,7 +1688,7 @@
       <c r="E17" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="F17" s="57" t="s">
+      <c r="F17" s="32" t="s">
         <v>145</v>
       </c>
       <c r="G17" s="14" t="s">
@@ -1679,7 +1715,7 @@
       <c r="E18" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="F18" s="57" t="s">
+      <c r="F18" s="32" t="s">
         <v>146</v>
       </c>
       <c r="G18" s="27"/>
@@ -1694,20 +1730,20 @@
       </c>
     </row>
     <row r="19" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C19" s="29" t="s">
+      <c r="C19" s="35" t="s">
         <v>128</v>
       </c>
-      <c r="D19" s="29"/>
-      <c r="E19" s="29"/>
-      <c r="F19" s="29"/>
-      <c r="G19" s="29"/>
-      <c r="H19" s="29"/>
-      <c r="I19" s="29"/>
-      <c r="J19" s="29"/>
-      <c r="K19" s="29"/>
+      <c r="D19" s="35"/>
+      <c r="E19" s="35"/>
+      <c r="F19" s="35"/>
+      <c r="G19" s="35"/>
+      <c r="H19" s="35"/>
+      <c r="I19" s="35"/>
+      <c r="J19" s="35"/>
+      <c r="K19" s="35"/>
     </row>
     <row r="20" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C20" s="30" t="s">
+      <c r="C20" s="36" t="s">
         <v>129</v>
       </c>
       <c r="D20" t="s">
@@ -1716,7 +1752,7 @@
       <c r="E20" t="s">
         <v>131</v>
       </c>
-      <c r="F20" s="54" t="s">
+      <c r="F20" s="29" t="s">
         <v>147</v>
       </c>
       <c r="G20" t="s">
@@ -1733,14 +1769,14 @@
       </c>
     </row>
     <row r="21" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C21" s="31"/>
+      <c r="C21" s="37"/>
       <c r="D21" t="s">
         <v>135</v>
       </c>
       <c r="E21" t="s">
         <v>136</v>
       </c>
-      <c r="F21" s="55"/>
+      <c r="F21" s="30"/>
       <c r="H21" s="6" t="s">
         <v>6</v>
       </c>
@@ -1813,15 +1849,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{670BDE95-32D1-49FD-9C5A-9CBB1FAE7FE3}">
   <dimension ref="B3:J23"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="8.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="26.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.140625" style="25" customWidth="1"/>
+    <col min="4" max="4" width="31.5703125" style="25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="24.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="31.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.85546875" customWidth="1"/>
@@ -1831,29 +1867,29 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B3" s="40" t="s">
+      <c r="B3" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="40" t="s">
+      <c r="C3" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="38" t="s">
+      <c r="D3" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="E3" s="48"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="38" t="s">
+      <c r="E3" s="54"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="44" t="s">
         <v>35</v>
       </c>
-      <c r="H3" s="39"/>
-      <c r="I3" s="38" t="s">
+      <c r="H3" s="45"/>
+      <c r="I3" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="J3" s="39"/>
+      <c r="J3" s="45"/>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B4" s="40"/>
-      <c r="C4" s="40"/>
+      <c r="B4" s="46"/>
+      <c r="C4" s="46"/>
       <c r="D4" s="24" t="s">
         <v>39</v>
       </c>
@@ -1877,7 +1913,7 @@
       </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B5" s="30" t="s">
+      <c r="B5" s="36" t="s">
         <v>37</v>
       </c>
       <c r="C5" t="s">
@@ -1886,7 +1922,7 @@
       <c r="D5" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="E5" s="54" t="s">
+      <c r="E5" s="29" t="s">
         <v>148</v>
       </c>
       <c r="F5" t="s">
@@ -1903,14 +1939,14 @@
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B6" s="31"/>
+      <c r="B6" s="37"/>
       <c r="C6" t="s">
         <v>48</v>
       </c>
       <c r="D6" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="E6" s="54" t="s">
+      <c r="E6" s="29" t="s">
         <v>149</v>
       </c>
       <c r="F6" t="s">
@@ -1927,14 +1963,14 @@
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B7" s="31"/>
+      <c r="B7" s="37"/>
       <c r="C7" t="s">
         <v>52</v>
       </c>
       <c r="D7" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="E7" s="54" t="s">
+      <c r="E7" s="29" t="s">
         <v>150</v>
       </c>
       <c r="F7" t="s">
@@ -1954,14 +1990,14 @@
       </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B8" s="31"/>
+      <c r="B8" s="37"/>
       <c r="C8" t="s">
         <v>56</v>
       </c>
       <c r="D8" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="E8" s="54" t="s">
+      <c r="E8" s="29" t="s">
         <v>151</v>
       </c>
       <c r="F8" t="s">
@@ -1987,7 +2023,7 @@
       <c r="D9" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="E9" s="54" t="s">
+      <c r="E9" s="29" t="s">
         <v>152</v>
       </c>
       <c r="F9" t="s">
@@ -2004,7 +2040,7 @@
       </c>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B10" s="31" t="s">
+      <c r="B10" s="37" t="s">
         <v>88</v>
       </c>
       <c r="C10" t="s">
@@ -2013,7 +2049,7 @@
       <c r="D10" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="E10" s="54" t="s">
+      <c r="E10" s="29" t="s">
         <v>153</v>
       </c>
       <c r="F10" t="s">
@@ -2030,14 +2066,14 @@
       </c>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B11" s="31"/>
+      <c r="B11" s="37"/>
       <c r="C11" t="s">
         <v>93</v>
       </c>
       <c r="D11" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="E11" s="54" t="s">
+      <c r="E11" s="29" t="s">
         <v>154</v>
       </c>
       <c r="F11" t="s">
@@ -2054,7 +2090,7 @@
       </c>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B12" s="31" t="s">
+      <c r="B12" s="37" t="s">
         <v>98</v>
       </c>
       <c r="C12" t="s">
@@ -2063,7 +2099,7 @@
       <c r="D12" s="25" t="s">
         <v>106</v>
       </c>
-      <c r="E12" s="55"/>
+      <c r="E12" s="30"/>
       <c r="F12" t="s">
         <v>103</v>
       </c>
@@ -2075,11 +2111,11 @@
       </c>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B13" s="31"/>
+      <c r="B13" s="37"/>
       <c r="D13" s="25" t="s">
         <v>99</v>
       </c>
-      <c r="E13" s="55"/>
+      <c r="E13" s="30"/>
       <c r="F13" t="s">
         <v>101</v>
       </c>
@@ -2088,11 +2124,11 @@
       </c>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B14" s="31"/>
+      <c r="B14" s="37"/>
       <c r="D14" s="25" t="s">
         <v>100</v>
       </c>
-      <c r="E14" s="55"/>
+      <c r="E14" s="30"/>
       <c r="F14" t="s">
         <v>101</v>
       </c>
@@ -2101,11 +2137,11 @@
       </c>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B15" s="31"/>
+      <c r="B15" s="37"/>
       <c r="D15" s="25" t="s">
         <v>97</v>
       </c>
-      <c r="E15" s="55"/>
+      <c r="E15" s="30"/>
       <c r="F15" t="s">
         <v>102</v>
       </c>
@@ -2114,11 +2150,11 @@
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B16" s="31"/>
+      <c r="B16" s="37"/>
       <c r="D16" s="25" t="s">
         <v>99</v>
       </c>
-      <c r="E16" s="55"/>
+      <c r="E16" s="30"/>
       <c r="F16" t="s">
         <v>102</v>
       </c>
@@ -2127,11 +2163,11 @@
       </c>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B17" s="31"/>
+      <c r="B17" s="37"/>
       <c r="D17" s="25" t="s">
         <v>100</v>
       </c>
-      <c r="E17" s="55"/>
+      <c r="E17" s="30"/>
       <c r="F17" t="s">
         <v>102</v>
       </c>
@@ -2140,7 +2176,7 @@
       </c>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B18" s="31" t="s">
+      <c r="B18" s="37" t="s">
         <v>111</v>
       </c>
       <c r="C18" t="s">
@@ -2149,7 +2185,7 @@
       <c r="D18" t="s">
         <v>114</v>
       </c>
-      <c r="E18" s="54" t="s">
+      <c r="E18" s="29" t="s">
         <v>155</v>
       </c>
       <c r="F18" t="s">
@@ -2166,14 +2202,14 @@
       </c>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B19" s="31"/>
+      <c r="B19" s="37"/>
       <c r="C19" t="s">
         <v>117</v>
       </c>
       <c r="D19" t="s">
         <v>121</v>
       </c>
-      <c r="E19" s="54" t="s">
+      <c r="E19" s="29" t="s">
         <v>156</v>
       </c>
       <c r="F19" t="s">
@@ -2199,7 +2235,7 @@
       <c r="D20" t="s">
         <v>124</v>
       </c>
-      <c r="E20" s="54" t="s">
+      <c r="E20" s="29" t="s">
         <v>157</v>
       </c>
       <c r="F20" s="26" t="s">
@@ -2215,11 +2251,59 @@
         <v>125</v>
       </c>
     </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B21" s="37" t="s">
+        <v>161</v>
+      </c>
+      <c r="C21" t="s">
+        <v>162</v>
+      </c>
+      <c r="D21" t="s">
+        <v>163</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="F21" s="25" t="s">
+        <v>164</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J21" s="11" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B22" s="37"/>
+      <c r="C22" t="s">
+        <v>167</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="F22" t="s">
+        <v>171</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="I22" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="J22" s="11" t="s">
+        <v>170</v>
+      </c>
+    </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.25">
       <c r="F23" s="26"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="10">
+    <mergeCell ref="B21:B22"/>
     <mergeCell ref="G3:H3"/>
     <mergeCell ref="I3:J3"/>
     <mergeCell ref="D3:F3"/>
@@ -2230,7 +2314,7 @@
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="C3:C4"/>
   </mergeCells>
-  <conditionalFormatting sqref="G5:H8 G9:G20">
+  <conditionalFormatting sqref="G5:H8 G9:G22">
     <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>"no"</formula>
     </cfRule>
@@ -2239,7 +2323,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G5:H8 G9:G20" xr:uid="{16E70C10-E0D8-4840-AEA1-7AA8C21C6052}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G5:H8 G9:G22" xr:uid="{16E70C10-E0D8-4840-AEA1-7AA8C21C6052}">
       <formula1>"yes,no"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2272,6 +2356,12 @@
     <hyperlink ref="I20" r:id="rId26" xr:uid="{4380D086-6180-45C1-9F84-52BBDD26E612}"/>
     <hyperlink ref="E20" r:id="rId27" xr:uid="{F01D8885-58E5-4152-89A6-1D3EFB41E879}"/>
     <hyperlink ref="E8" r:id="rId28" xr:uid="{A66C6588-B22D-48F2-A4EC-7D0E46AD60F3}"/>
+    <hyperlink ref="E21" r:id="rId29" xr:uid="{B51B99C6-1910-491D-81A6-E411A3AE7908}"/>
+    <hyperlink ref="J21" r:id="rId30" xr:uid="{D4B2B14F-519C-40B0-AC9E-652A1615F7B2}"/>
+    <hyperlink ref="D22" r:id="rId31" display="https://www.digikey.com.au/en/products/filter/transistors/fets-mosfets/single-fets-mosfets/3-smd-sot-23-3-variant/278?s=N4IgjCBcpgbFoDGUBmBDANgZwKYBoQA3AOygBcAnAV3xAHsoBtEAJgAYWBWWTkAXQIAHMlBABlSgEtiAcxABfRUA" xr:uid="{427053F7-D1E6-4161-A03E-357918EA99BE}"/>
+    <hyperlink ref="J22" r:id="rId32" xr:uid="{A8094415-9801-4570-832C-C2DE47B8EED0}"/>
+    <hyperlink ref="E22" r:id="rId33" xr:uid="{3300C72A-8FEE-49E7-9F94-26680825DC19}"/>
+    <hyperlink ref="I22" r:id="rId34" xr:uid="{12A90CC8-ABE8-4E1C-B7E9-A039C71E7360}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
@@ -2302,29 +2392,29 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B2" s="49" t="s">
+      <c r="B2" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="49" t="s">
+      <c r="C2" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="51" t="s">
+      <c r="D2" s="57" t="s">
         <v>40</v>
       </c>
-      <c r="E2" s="52"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="38" t="s">
+      <c r="E2" s="58"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="44" t="s">
         <v>35</v>
       </c>
-      <c r="H2" s="39"/>
-      <c r="I2" s="38" t="s">
+      <c r="H2" s="45"/>
+      <c r="I2" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="J2" s="39"/>
+      <c r="J2" s="45"/>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B3" s="50"/>
-      <c r="C3" s="50"/>
+      <c r="B3" s="56"/>
+      <c r="C3" s="56"/>
       <c r="D3" s="18" t="s">
         <v>39</v>
       </c>
@@ -2357,7 +2447,7 @@
       <c r="D4" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="E4" s="58" t="s">
+      <c r="E4" s="33" t="s">
         <v>158</v>
       </c>
       <c r="F4" s="21" t="s">
@@ -2384,7 +2474,7 @@
       <c r="D5" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="E5" s="59" t="s">
+      <c r="E5" s="34" t="s">
         <v>159</v>
       </c>
       <c r="F5" s="9"/>
@@ -2396,7 +2486,7 @@
       </c>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B6" s="31" t="s">
+      <c r="B6" s="37" t="s">
         <v>78</v>
       </c>
       <c r="C6" t="s">
@@ -2405,7 +2495,7 @@
       <c r="D6" t="s">
         <v>46</v>
       </c>
-      <c r="E6" s="54" t="s">
+      <c r="E6" s="29" t="s">
         <v>160</v>
       </c>
       <c r="F6" t="s">
@@ -2419,14 +2509,14 @@
       </c>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B7" s="31"/>
+      <c r="B7" s="37"/>
       <c r="C7" t="s">
         <v>81</v>
       </c>
       <c r="D7" t="s">
         <v>46</v>
       </c>
-      <c r="E7" s="54" t="s">
+      <c r="E7" s="29" t="s">
         <v>160</v>
       </c>
       <c r="F7" t="s">
@@ -2440,14 +2530,14 @@
       </c>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B8" s="31"/>
+      <c r="B8" s="37"/>
       <c r="C8" t="s">
         <v>85</v>
       </c>
       <c r="D8" t="s">
         <v>46</v>
       </c>
-      <c r="E8" s="54" t="s">
+      <c r="E8" s="29" t="s">
         <v>160</v>
       </c>
       <c r="F8" t="s">
@@ -2461,7 +2551,7 @@
       </c>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B9" s="31"/>
+      <c r="B9" s="37"/>
       <c r="C9" t="s">
         <v>107</v>
       </c>
